--- a/biology/Zoologie/Cimicoidea/Cimicoidea.xlsx
+++ b/biology/Zoologie/Cimicoidea/Cimicoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cimicoidea, ou Cimicoïdés, sont une super-famille d'insectes hétéroptères (punaises), de l'infra-ordre des Cimicomorphes.
 </t>
@@ -511,18 +523,55 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La systématique de cette super-famille a beaucoup évolué et reste discutée sur certains aspects, notamment sa phylogénie. Elle est centrée sur deux familles principales, les Anthocoridae et les Cimicidae, ainsi que les Plokiophilidae, et les Polyctenidae. Dans une première définition de Kerzhner (1981)[1], elle contenait en plus les Nabidae et les Velocipedidae. Les Nabidae ont ensuite été classés dans une autre super-famille, les Naboidea, et les Velocipedidae, à leur tour, dans une super-famille, les Velocipedoidea. 
-De plus, la famille des Anthocoridae (telle que définie par Carayon en 1974)[2] a été scindée par Schuh et S̆tys en 1991[3] en trois familles, les Anthocoridae au sens strict, les Lyctocoridae et les Lasiochilidae. Alors que le statut de famille des Lyctocoridae a été confirmé, les Lasiochilinae ont été maintenus au rang de sous-famille par Carpintero dans sa révision de 2014[4]. 
-Enfin, une nouvelle espèce, décrite en 2008, a donné lieu à la création d'une nouvelle famille, les Curaliidae[5]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La systématique de cette super-famille a beaucoup évolué et reste discutée sur certains aspects, notamment sa phylogénie. Elle est centrée sur deux familles principales, les Anthocoridae et les Cimicidae, ainsi que les Plokiophilidae, et les Polyctenidae. Dans une première définition de Kerzhner (1981), elle contenait en plus les Nabidae et les Velocipedidae. Les Nabidae ont ensuite été classés dans une autre super-famille, les Naboidea, et les Velocipedidae, à leur tour, dans une super-famille, les Velocipedoidea. 
+De plus, la famille des Anthocoridae (telle que définie par Carayon en 1974) a été scindée par Schuh et S̆tys en 1991 en trois familles, les Anthocoridae au sens strict, les Lyctocoridae et les Lasiochilidae. Alors que le statut de famille des Lyctocoridae a été confirmé, les Lasiochilinae ont été maintenus au rang de sous-famille par Carpintero dans sa révision de 2014. 
+Enfin, une nouvelle espèce, décrite en 2008, a donné lieu à la création d'une nouvelle famille, les Curaliidae. 
 Ainsi, à ce jour, les Cimicoidea comprendraient six familles : les Anthocoridae (y compris les Lasiochilinae), les Cimicidae, les Curaliidae, les Lyctocoridae, les Plokiophilidae et les Polyctenidae. 
-Plusieurs études tendent à confirmer sa monophylie dans sa définition actuelle. Les Lasiochilinae (ou Lasiochilidae) seraient le groupe-frère de tous les autres Cimicoidea, qui s'arrangeraient de la manière suivante : (Lasiochilinae + ((reste des Anthocoridae + Lyctocoridae) + (Plokiophilidae + (Cimicidae + Polyctenidae + Curaliidae))))[6].
+Plusieurs études tendent à confirmer sa monophylie dans sa définition actuelle. Les Lasiochilinae (ou Lasiochilidae) seraient le groupe-frère de tous les autres Cimicoidea, qui s'arrangeraient de la manière suivante : (Lasiochilinae + ((reste des Anthocoridae + Lyctocoridae) + (Plokiophilidae + (Cimicidae + Polyctenidae + Curaliidae)))).
 Les Cimicoidea comprennent également trois familles fossiles.
-Concernant les rangs taxonomiques supérieurs, les Cimicoidea formeraient, avec les Naboidea, les Cimiciformes[6],[7], au sein de l'infra-ordre des Cimicomorpha.
-La séparation entre les Lasiochilinae et les Nabidae aurait eu lieu au Jurassique tardif, vers −161 millions d'années[8].  
-Liste des familles
-Selon BioLib                    (17 avril 2022)[9] (qui conserve encore les Nabidae) :
+Concernant les rangs taxonomiques supérieurs, les Cimicoidea formeraient, avec les Naboidea, les Cimiciformes au sein de l'infra-ordre des Cimicomorpha.
+La séparation entre les Lasiochilinae et les Nabidae aurait eu lieu au Jurassique tardif, vers −161 millions d'années.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cimicoidea</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimicoidea</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des familles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (17 avril 2022) (qui conserve encore les Nabidae) :
 Anthocoridae Fieber, 1837
 Cimicidae Latreille, 1802
 Curaliidae Schuh, Weirauch &amp; Henry, 2008
@@ -530,53 +579,89 @@
 Nabidae A. Costa, 1853, dorénavant en général classés dans les Naboidea
 Plokiophilidae China, 1953
 Polyctenidae Westwood, 1874
-Selon  Species File              (17 avril 2022)[10] (qui ne prend pas encore en compte les Curaliidae, et traite les Lasiochilidae comme famille) :
+Selon  Species File              (17 avril 2022) (qui ne prend pas encore en compte les Curaliidae, et traite les Lasiochilidae comme famille) :
 Anthocoridae
 Cimicidae
 Lasiochilidae
 Lyctocoridae
 Plokiophilidae
-Polyctenidae
-Familles et genres fossiles
-Selon BioLib                    (17 avril 2022)[9] :
+Polyctenidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimicoidea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimicoidea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Familles et genres fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (17 avril 2022) :
 famille des †Taimyrocoridae Popov, 2016
 famille des †Torrirostratidae Yao &amp; al., 2014
 genre †Electrocoris Usinger, 1942
-Auxquels le site Paleobiology Database                   (17 avril 2022)[11] rajoute : 
-famille des †Vetanthocoridae Yao &amp; al., 2006[12],[7]
-La famille des †Mesopentacoridae Popov 1968, originellement placée dans les Cimicoidea, a été déplacée dans les Pentatomoidea (Pentatomorpha) par Szwedo en 2018[13].
+Auxquels le site Paleobiology Database                   (17 avril 2022) rajoute : 
+famille des †Vetanthocoridae Yao &amp; al., 2006,
+La famille des †Mesopentacoridae Popov 1968, originellement placée dans les Cimicoidea, a été déplacée dans les Pentatomoidea (Pentatomorpha) par Szwedo en 2018.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Cimicoidea</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cimicoidea</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les caractéristiques correspondant à la définition la plus récente des Cimicoidea sont liées aux organes reproducteurs : forte réduction du paramère droit, orientation transverse du paramère gauche, insertion du paramère gauche déplacée à mi-hauteur du pygophore, ainsi que des œufs sans micropyles[6]. 
+Les caractéristiques correspondant à la définition la plus récente des Cimicoidea sont liées aux organes reproducteurs : forte réduction du paramère droit, orientation transverse du paramère gauche, insertion du paramère gauche déplacée à mi-hauteur du pygophore, ainsi que des œufs sans micropyles. 
 			Anthocoridae : Anthocoris nemorum.
 			Lyctocoridae : Lyctocoris dimidiatus.
 			Plokiophilidae : Plokiophiloides bannaensis.
